--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122599.151583877</v>
+        <v>4119581.561182939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>682213.8818051493</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7368670.424756987</v>
+        <v>7368670.424756989</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>195.0020332030668</v>
       </c>
       <c r="H2" t="n">
-        <v>263.8291486820131</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.3574574433302</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2954928959994</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>35.22320090265818</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>326.7014162146286</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.30577178795856</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>335.1251144685963</v>
+        <v>331.6173044821791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>246.0394658505828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>266.1777743716884</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>114.8548436777129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>141.5206898404988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>156.0581614433533</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
         <v>251.0785952498008</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>186.5440634991552</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>12.53567214726881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.03889042938667</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>149.2146404868056</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692819</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898725</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857057</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224542</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898687</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789431</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898725</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463097</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941874</v>
@@ -3724,10 +3724,10 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.452763222453</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898687</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329074</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274128</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>39.99347284388909</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D2" t="n">
-        <v>1149.386784289576</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E2" t="n">
-        <v>1149.386784289576</v>
+        <v>1142.561333289048</v>
       </c>
       <c r="F2" t="n">
-        <v>738.4008794999686</v>
+        <v>731.5754284994405</v>
       </c>
       <c r="G2" t="n">
-        <v>320.4370713981555</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,10 +4416,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>694.4345827485251</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>694.4345827485251</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="W4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="X4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.4943954681378</v>
+        <v>405.2609724030931</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.166777909405</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069.921547395234</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>1700.959030454823</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="D8" t="n">
-        <v>1342.693331848072</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="E8" t="n">
-        <v>956.9050792498281</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="F8" t="n">
-        <v>545.9191744602206</v>
+        <v>869.5706520136953</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>2069.921547395234</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,7 +5072,7 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1071.906163421429</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1071.906163421429</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>817.2216752155416</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W13" t="n">
-        <v>527.8045051785809</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X13" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5470,16 +5470,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1066.837440013381</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.837440013381</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>838.8478891153636</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>838.8478891153636</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108312</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014776</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556163</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.69918977486</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1030.286650526843</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>775.602162320956</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>486.1849922839954</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1110.567913504611</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>855.8834252987245</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>855.8834252987245</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>855.8834252987245</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>855.8834252987245</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128705</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2292.946699347402</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.969180129612</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.1356072130308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>1007.78407204327</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>1007.78407204327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1007.78407204327</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514088</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.8631874464247</v>
+        <v>3778.50958529664</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4832.532461469459</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4832.532461469459</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>4832.532461469459</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>4543.403822683017</v>
       </c>
       <c r="V28" t="n">
-        <v>835.2803574833854</v>
+        <v>4288.71933447713</v>
       </c>
       <c r="W28" t="n">
-        <v>545.8631874464247</v>
+        <v>3999.30216444017</v>
       </c>
       <c r="X28" t="n">
-        <v>545.8631874464247</v>
+        <v>3999.30216444017</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.8631874464247</v>
+        <v>3778.50958529664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,19 +6546,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740472</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852606</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480311</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937959</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480089</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839951</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782178</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255134</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494607</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490135</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746027</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979767</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571754</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489055</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492135</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634159</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.62234553067</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,25 +6956,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128705</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103119</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,22 +7433,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>181.9314425141214</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>592.8217113586342</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7634,43 +7634,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,13 +7731,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>550.2226492899333</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>857.5427825698951</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3780.023615539696</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C46" t="n">
-        <v>3611.087432611789</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D46" t="n">
-        <v>3611.087432611789</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E46" t="n">
-        <v>3611.087432611789</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F46" t="n">
-        <v>3611.087432611789</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>3611.087432611789</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929847</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.149147719352</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U46" t="n">
-        <v>4437.149147719352</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V46" t="n">
-        <v>4182.464659513465</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W46" t="n">
-        <v>4182.464659513465</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X46" t="n">
-        <v>4182.464659513465</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y46" t="n">
-        <v>3961.672080369935</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>349.765300333857</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
-        <v>145.2351313103781</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>283.6093329825487</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.86002301949807</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>360.502686290725</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38.86002301949833</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>43.65987261462416</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>199.7396287231146</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714816</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>15.83804904622804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>106.6927173806764</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>110.6169534833292</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>130.1791909552241</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>99.6932888994221</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>273.9873261893222</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>81.9254619744061</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>102.9230028370224</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>108.920355523647</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518765</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="L2" t="n">
+        <v>800515.7256176769</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="O2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="P2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885321</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="P2" t="n">
-        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.5121037124</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="K4" t="n">
-        <v>37130.28789562997</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37130.28789562987</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37130.28789562988</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37130.28789562988</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37130.2878956299</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002542</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28670.97540203299</v>
+        <v>-29086.18991150043</v>
       </c>
       <c r="C6" t="n">
-        <v>561296.9038125114</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="D6" t="n">
-        <v>561296.9038125117</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>130647.8034086103</v>
+        <v>130313.6344414807</v>
       </c>
       <c r="F6" t="n">
-        <v>655807.8398855064</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="G6" t="n">
-        <v>655807.8398855061</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="H6" t="n">
-        <v>655807.839885506</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="I6" t="n">
-        <v>655807.8398855064</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="J6" t="n">
-        <v>479384.6206929135</v>
+        <v>479050.4517257835</v>
       </c>
       <c r="K6" t="n">
-        <v>611164.8197983089</v>
+        <v>610830.6508311795</v>
       </c>
       <c r="L6" t="n">
-        <v>665670.3319020217</v>
+        <v>665336.1629348919</v>
       </c>
       <c r="M6" t="n">
-        <v>530869.3166681846</v>
+        <v>530535.1477010546</v>
       </c>
       <c r="N6" t="n">
-        <v>665670.3319020214</v>
+        <v>665336.1629348913</v>
       </c>
       <c r="O6" t="n">
-        <v>665670.3319020215</v>
+        <v>665336.1629348918</v>
       </c>
       <c r="P6" t="n">
-        <v>655807.8398855061</v>
+        <v>655473.6709183768</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,19 +26817,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="H2" t="n">
-        <v>60.09362408234409</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>178.7880815066887</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>96.22750544059161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>334.5078997758109</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>59.53652244142495</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>91.12819085861062</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560545</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78.65905555219871</v>
+        <v>82.16686553861592</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>6.098177473245244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>20.34522396490263</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>660.1896773843232</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>455.6595083608444</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>490.7027479140735</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.8730558045722</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>616.5391140644617</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318332</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>321.2237252606066</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>85.57005156953088</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594836</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>532.9342021211276</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
@@ -38099,16 +38099,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>265.0957540022524</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315248</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4192956.85016903</v>
+        <v>4185939.835277317</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7270392.649804331</v>
+        <v>7270392.64980433</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>91.54315909067336</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>106.2088904079638</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>126.0887386816666</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>17.2343016918729</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.8466288669299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.0262579901318</v>
+        <v>61.40402402712894</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.5889480231531</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896892</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.05753803430127</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301391</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.486473990669367</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67.73429602643071</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>41.14185518293177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>67.95767602337148</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>109.9674473915278</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>252.9995184556874</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.53862743923889</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.10281740524588</v>
+        <v>146.1854691670924</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498028</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>136.9575509524585</v>
       </c>
       <c r="U37" t="n">
-        <v>169.0602894095018</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>28.34596174312128</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.69586997053518</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>59.68058067939843</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1423.84567264245</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1038.057420044206</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>627.0715152545986</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2104.899421018185</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.433662757106</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>181.3053441250782</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.054351842972</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.054351842972</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>994.7886532362213</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>609.000400637977</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>198.0144958483694</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>184.0910917869604</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>184.0910917869604</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
         <v>882.8926947117852</v>
@@ -4807,19 +4807,19 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.782796226253</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.53298621802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>862.8484980121333</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W13" t="n">
-        <v>862.8484980121333</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X13" t="n">
-        <v>634.8589471141159</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5287,7 +5287,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.3536117832383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>515.3536117832383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>365.2369723709025</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>217.3238787885094</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>217.3238787885094</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>217.3238787885094</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>736.1461909267684</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.3536117832383</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,49 +5518,49 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>312.5255197929747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>312.5255197929747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5255197929747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>165.6355722950643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188989</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>481.4617027208816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738957</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4096.248866878434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3927.312683950528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3927.312683950528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3927.312683950528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3780.422736452617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3612.247414772438</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4317.041446021964</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4317.041446021964</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4096.248866878434</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3846.392841244237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3846.392841244237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3846.392841244237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3846.392841244237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4549.859459491671</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4549.859459491671</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4295.174971285785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4295.174971285785</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4067.185420387767</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>3846.392841244237</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2969.450898153559</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3276.77103143352</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3867.997941244694</v>
+        <v>807.0580565471723</v>
       </c>
       <c r="C28" t="n">
-        <v>3867.997941244694</v>
+        <v>638.1218736192654</v>
       </c>
       <c r="D28" t="n">
-        <v>3867.997941244694</v>
+        <v>488.0052342069297</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244694</v>
+        <v>488.0052342069297</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>488.0052342069297</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>319.8299125267503</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>4270.438985218464</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>4270.438985218464</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>4270.438985218464</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>4270.438985218464</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>4049.646406074934</v>
+        <v>988.7065213774121</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108312</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3336.698222658631</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3644.018355938593</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3789.665185838029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3620.729002910122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3620.729002910122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3620.729002910122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3620.729002910122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4260.730820705229</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4260.730820705229</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3971.313650668269</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3971.313650668269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3971.313650668269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,22 +6691,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>846.3978353108171</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C34" t="n">
-        <v>677.4616523829102</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6855,19 +6855,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W34" t="n">
-        <v>1028.046300141057</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X34" t="n">
-        <v>1028.046300141057</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y34" t="n">
-        <v>1028.046300141057</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,34 +6952,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4355.226085265116</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C37" t="n">
-        <v>4186.289902337209</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D37" t="n">
-        <v>4036.173262924874</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365623</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U37" t="n">
-        <v>4355.226085265116</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V37" t="n">
-        <v>4355.226085265116</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W37" t="n">
-        <v>4355.226085265116</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X37" t="n">
-        <v>4355.226085265116</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y37" t="n">
-        <v>4355.226085265116</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>534.3905543375959</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>534.3905543375959</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>384.2739149252601</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>384.2739149252601</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>237.3839674273497</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>755.183133481126</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>755.183133481126</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.3905543375959</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>592.8217113586345</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>488.8659712700625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>488.8659712700625</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>338.7493318577267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>338.7493318577267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>191.8593843598163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>898.5039869983195</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>670.5144361003022</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>670.5144361003022</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>261.8048459311032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>410.874530133163</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3837.730769836866</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>3777.447355009191</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>3627.330715596855</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596855</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>4347.940519017357</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W46" t="n">
-        <v>4058.523348980396</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X46" t="n">
-        <v>4058.523348980396</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>3837.730769836866</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165133</v>
       </c>
       <c r="O12" t="n">
-        <v>213.2603911806631</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772039</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>145.2351313103792</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6230805871076</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.1147370139948</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>148.1350559470645</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>213.2603911806629</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>124.340078086323</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>240.1798143642761</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>90.96703739368888</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4273543768668</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>98.75927243694687</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>107.7719731846043</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>77.46337199955977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>38.94638097600834</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>33.23783394288998</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>116.9549410241387</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>270.4201809313451</v>
+        <v>140.3375291694986</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>84.59001010593076</v>
       </c>
       <c r="U37" t="n">
-        <v>117.1770629890755</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.1476067202563</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.7976984928424</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>107.5662404192294</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.112392674151</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
@@ -26325,37 +26325,37 @@
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.6664885324</v>
-      </c>
       <c r="H2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.666488532</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.666488532</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143921</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150023</v>
+        <v>-29086.18991150026</v>
       </c>
       <c r="C6" t="n">
         <v>560881.6893030442</v>
@@ -26530,40 +26530,40 @@
         <v>560881.6893030443</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414807</v>
+        <v>129339.0431817593</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="G6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
       <c r="H6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="I6" t="n">
-        <v>655473.6709183769</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="J6" t="n">
-        <v>479050.4517257839</v>
+        <v>478075.8604660615</v>
       </c>
       <c r="K6" t="n">
-        <v>655473.670918377</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="L6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586548</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.6556845397</v>
+        <v>519698.0644248177</v>
       </c>
       <c r="N6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586545</v>
       </c>
       <c r="O6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26819,13 +26819,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>322.2410109301217</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>243.0320783094492</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.52673433654576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>365.4995399716076</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>23.08468737793132</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>21.87414536972216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.7048426883372</v>
+        <v>308.3270766513401</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.69292621882468</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.635102626762782e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>-1.492994079610762e-12</v>
       </c>
       <c r="V35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>495.6240934217712</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35737,13 +35737,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>394.4928362664036</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>532.9342021211282</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>448.8807855431319</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700192</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>355.2284708785892</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>420.3538061121876</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>166.2502570412296</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4185939.835277317</v>
+        <v>4190879.09812635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>91.54315909067336</v>
+        <v>144.8861367051632</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.2343016918729</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>71.64540509163452</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>61.40402402712894</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896892</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>32.33602639003036</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.1706059301391</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.467071307536481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>122.65197883716</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>122.65197883716</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>161.4046520073175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.9674473915278</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>147.0099887688989</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1854691670924</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>136.9575509524585</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>95.02525064967696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.111371249201</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C2" t="n">
-        <v>1782.111371249201</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D2" t="n">
-        <v>1423.84567264245</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.057420044206</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F2" t="n">
-        <v>627.0715152545986</v>
+        <v>353.7585908607932</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,64 +4543,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
         <v>2366.086203674652</v>
@@ -4609,10 +4609,10 @@
         <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.59438369213</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341669</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>446.7290208898085</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>277.7928379619016</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>277.7928379619016</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>129.8797443795085</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V13" t="n">
-        <v>1336.117678709276</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.700508672316</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>446.7290208898085</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>446.7290208898085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>252.1472931522784</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>101.7292847002217</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>420.3226148324578</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1302.911127126629</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>807.0580565471723</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1218736192654</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>488.0052342069297</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>488.0052342069297</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>488.0052342069297</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>319.8299125267503</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774121</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5150706909923</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188992</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,34 +6952,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1360.575309999864</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>816.7621830075352</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>318.009670603816</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1402.931168891562</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1113.513998854602</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165133</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814589</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>104.874910276575</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>127.646125010065</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>113.0850216329009</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>90.96703739368888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0576765518772</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518772</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>38.94638097600834</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.605484249313434</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>140.3375291694986</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.59001010593076</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.112392674151</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="H2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885322</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.666488532</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="M2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.666488532</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143921</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="K4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
-      <c r="L4" t="n">
-        <v>15045.66962143901</v>
-      </c>
       <c r="M4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150026</v>
+        <v>-29086.18991150038</v>
       </c>
       <c r="C6" t="n">
         <v>560881.6893030442</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030443</v>
+        <v>560881.6893030442</v>
       </c>
       <c r="E6" t="n">
-        <v>129339.0431817593</v>
+        <v>130216.1753155084</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924052</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="J6" t="n">
-        <v>478075.8604660615</v>
+        <v>478952.9925998117</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.0796586548</v>
+        <v>655376.2117924048</v>
       </c>
       <c r="M6" t="n">
-        <v>519698.0644248177</v>
+        <v>520575.1965585672</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.0796586545</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924044</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,13 +26819,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.2410109301217</v>
+        <v>268.8980333156318</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>365.4995399716076</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>335.2306406500769</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.4429748595356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>308.3270766513401</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.635102626762782e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.492994079610762e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30240,10 +30240,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507399</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>438.0694836745878</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>410.0098272511731</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
